--- a/Data set.xlsx
+++ b/Data set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\_iDong\Desktop\DM_NeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533A0CA-83DD-48FA-8C53-7034AC5DE803}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31530E0E-5988-4C5E-93F8-4F8546B5D228}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" activeTab="1" xr2:uid="{15A287B3-811A-4E6E-B90F-7B93DED83E75}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="106">
   <si>
     <t>6</t>
   </si>
@@ -345,6 +345,21 @@
   <si>
     <t>CLASS/ASD</t>
   </si>
+  <si>
+    <t>คอลัมน์1</t>
+  </si>
+  <si>
+    <t>คอลัมน์2</t>
+  </si>
+  <si>
+    <t>คอลัมน์3</t>
+  </si>
+  <si>
+    <t>0 0</t>
+  </si>
+  <si>
+    <t>1 1</t>
+  </si>
 </sst>
 </file>
 
@@ -404,7 +419,23 @@
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -469,6 +500,13 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -560,8 +598,8 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ข้อมูลภายนอก_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="27">
-    <queryTableFields count="20">
+  <queryTableRefresh nextId="30" unboundColumnsRight="3">
+    <queryTableFields count="23">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
@@ -582,6 +620,9 @@
       <queryTableField id="18" name="Column18" tableColumnId="18"/>
       <queryTableField id="20" name="Column20" tableColumnId="20"/>
       <queryTableField id="21" name="Column21" tableColumnId="21"/>
+      <queryTableField id="27" dataBound="0" tableColumnId="19"/>
+      <queryTableField id="28" dataBound="0" tableColumnId="22"/>
+      <queryTableField id="29" dataBound="0" tableColumnId="23"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Column19"/>
@@ -604,45 +645,48 @@
     <tableColumn id="8" xr3:uid="{F1906EA5-2C8D-4676-984F-C6C8271F394D}" uniqueName="8" name="A8" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{9974482B-0B93-49D3-83F6-CB932054F3D1}" uniqueName="9" name="A9" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{252CAD33-14D6-47A0-A24B-D3338704F866}" uniqueName="10" name="A10" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{5643AEDB-5485-4863-9F47-CD8F8D1BE90E}" uniqueName="11" name="age" queryTableFieldId="11" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{209CAE9D-1F01-4962-A0AF-A59CABE93CD0}" uniqueName="12" name="gender" queryTableFieldId="12" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{CC20E0D6-FDA4-491A-930C-5B5CA64E4F31}" uniqueName="13" name="ethnicity" queryTableFieldId="13" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{F566D8B7-6E44-44AC-B8AB-6D109EBE199F}" uniqueName="14" name="jundice" queryTableFieldId="14" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{3B17A8A3-6011-4562-823A-333B34A3D6BB}" uniqueName="15" name="austim" queryTableFieldId="15" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{EB94D661-958F-4A93-9839-F2420AB9DEDD}" uniqueName="16" name="contry of res" queryTableFieldId="16" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{A3B04579-AB6F-424B-8E63-8F00B69ED539}" uniqueName="17" name="used app before" queryTableFieldId="17" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{5643AEDB-5485-4863-9F47-CD8F8D1BE90E}" uniqueName="11" name="age" queryTableFieldId="11" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{209CAE9D-1F01-4962-A0AF-A59CABE93CD0}" uniqueName="12" name="gender" queryTableFieldId="12" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{CC20E0D6-FDA4-491A-930C-5B5CA64E4F31}" uniqueName="13" name="ethnicity" queryTableFieldId="13" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{F566D8B7-6E44-44AC-B8AB-6D109EBE199F}" uniqueName="14" name="jundice" queryTableFieldId="14" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{3B17A8A3-6011-4562-823A-333B34A3D6BB}" uniqueName="15" name="austim" queryTableFieldId="15" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{EB94D661-958F-4A93-9839-F2420AB9DEDD}" uniqueName="16" name="contry of res" queryTableFieldId="16" dataDxfId="30"/>
+    <tableColumn id="17" xr3:uid="{A3B04579-AB6F-424B-8E63-8F00B69ED539}" uniqueName="17" name="used app before" queryTableFieldId="17" dataDxfId="29"/>
     <tableColumn id="18" xr3:uid="{A07931EC-4735-4618-BBAA-0EE7135971C9}" uniqueName="18" name="result" queryTableFieldId="18"/>
-    <tableColumn id="20" xr3:uid="{C33B9983-88E6-4FE3-836D-6E342B4C108A}" uniqueName="20" name="relation" queryTableFieldId="20" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{76AAD9C1-CDAE-41ED-A459-E1B41D9DB37B}" uniqueName="21" name="CLASS/ASD" queryTableFieldId="21" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{C33B9983-88E6-4FE3-836D-6E342B4C108A}" uniqueName="20" name="relation" queryTableFieldId="20" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{76AAD9C1-CDAE-41ED-A459-E1B41D9DB37B}" uniqueName="21" name="CLASS/ASD" queryTableFieldId="21" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{646DF704-DC5B-4B49-917E-ACF35B21E1FB}" name="Autism_Child_Data3" displayName="Autism_Child_Data3" ref="A1:T293" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T293" xr:uid="{CA4019D6-67F0-4B75-B8CF-23F5C88F18F6}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{41E4DB33-3FCB-4B37-AC24-1A93B5D16CC8}" uniqueName="1" name="A1" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{E60C7128-EF9F-4BBE-B090-651373274D7C}" uniqueName="2" name="A2" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9594FDB6-E31F-464A-9D61-6ED1328A0ADE}" uniqueName="3" name="A3" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{63DAFD38-794C-4F32-99B0-FDC7CD00AAAB}" uniqueName="4" name="A4" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A0DCA791-ADA9-4FDE-A172-41B099DB20BF}" uniqueName="5" name="A5" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{454D2551-B786-4AD1-A710-9EFDE283B40F}" uniqueName="6" name="A6" queryTableFieldId="6" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{C7FD6F28-468A-4951-B19F-3AAA13574DE0}" uniqueName="7" name="A7" queryTableFieldId="7" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{4FA5212E-124F-4D81-A3C2-DAD58C26711E}" uniqueName="8" name="A8" queryTableFieldId="8" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{804AE096-CC88-46F2-BFAA-4573FE73D922}" uniqueName="9" name="A9" queryTableFieldId="9" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{4858ABBA-0099-4CC7-BB7F-AE8BC864C488}" uniqueName="10" name="A10" queryTableFieldId="10" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{895EB621-949E-4E6C-AD18-11C65D3838E8}" uniqueName="11" name="age" queryTableFieldId="11" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{9FDE16A9-AC73-4E66-AE0D-A001DEF183D6}" uniqueName="12" name="gender" queryTableFieldId="12" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{027C2486-7ABA-4786-B72D-F8A5506EB529}" uniqueName="13" name="ethnicity" queryTableFieldId="13" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{B2E81EFB-7D53-4FE8-B7FC-B48E6F2A8060}" uniqueName="14" name="jundice" queryTableFieldId="14" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{8DB73EB4-FED9-4A16-860B-D089481AF494}" uniqueName="15" name="austim" queryTableFieldId="15" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{3CD6BA14-884B-4930-8306-C162679D6FA4}" uniqueName="16" name="contry of res" queryTableFieldId="16" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{2BE4FD44-085D-4D7B-AACF-1C85CCFD0879}" uniqueName="17" name="used app before" queryTableFieldId="17" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{2B1A17AE-5667-4AF4-B185-49216F1CADA4}" uniqueName="18" name="result" queryTableFieldId="18" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{D312FBFE-D38E-44B8-8A22-BC902831FA93}" uniqueName="20" name="relation" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{5420633F-9204-44A4-BE2D-FD09720FF55E}" uniqueName="21" name="CLASS/ASD" queryTableFieldId="21" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{646DF704-DC5B-4B49-917E-ACF35B21E1FB}" name="Autism_Child_Data3" displayName="Autism_Child_Data3" ref="A1:W293" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W293" xr:uid="{CA4019D6-67F0-4B75-B8CF-23F5C88F18F6}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{41E4DB33-3FCB-4B37-AC24-1A93B5D16CC8}" uniqueName="1" name="A1" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{E60C7128-EF9F-4BBE-B090-651373274D7C}" uniqueName="2" name="A2" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9594FDB6-E31F-464A-9D61-6ED1328A0ADE}" uniqueName="3" name="A3" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{63DAFD38-794C-4F32-99B0-FDC7CD00AAAB}" uniqueName="4" name="A4" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{A0DCA791-ADA9-4FDE-A172-41B099DB20BF}" uniqueName="5" name="A5" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{454D2551-B786-4AD1-A710-9EFDE283B40F}" uniqueName="6" name="A6" queryTableFieldId="6" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{C7FD6F28-468A-4951-B19F-3AAA13574DE0}" uniqueName="7" name="A7" queryTableFieldId="7" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{4FA5212E-124F-4D81-A3C2-DAD58C26711E}" uniqueName="8" name="A8" queryTableFieldId="8" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{804AE096-CC88-46F2-BFAA-4573FE73D922}" uniqueName="9" name="A9" queryTableFieldId="9" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{4858ABBA-0099-4CC7-BB7F-AE8BC864C488}" uniqueName="10" name="A10" queryTableFieldId="10" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{895EB621-949E-4E6C-AD18-11C65D3838E8}" uniqueName="11" name="age" queryTableFieldId="11" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{9FDE16A9-AC73-4E66-AE0D-A001DEF183D6}" uniqueName="12" name="gender" queryTableFieldId="12" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{027C2486-7ABA-4786-B72D-F8A5506EB529}" uniqueName="13" name="ethnicity" queryTableFieldId="13" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{B2E81EFB-7D53-4FE8-B7FC-B48E6F2A8060}" uniqueName="14" name="jundice" queryTableFieldId="14" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{8DB73EB4-FED9-4A16-860B-D089481AF494}" uniqueName="15" name="austim" queryTableFieldId="15" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{3CD6BA14-884B-4930-8306-C162679D6FA4}" uniqueName="16" name="contry of res" queryTableFieldId="16" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{2BE4FD44-085D-4D7B-AACF-1C85CCFD0879}" uniqueName="17" name="used app before" queryTableFieldId="17" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{2B1A17AE-5667-4AF4-B185-49216F1CADA4}" uniqueName="18" name="result" queryTableFieldId="18" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{D312FBFE-D38E-44B8-8A22-BC902831FA93}" uniqueName="20" name="relation" queryTableFieldId="20" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{5420633F-9204-44A4-BE2D-FD09720FF55E}" uniqueName="21" name="CLASS/ASD" queryTableFieldId="21" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{CB0F5979-D402-40CF-8F5E-031DBCD3E7C6}" uniqueName="19" name="คอลัมน์1" queryTableFieldId="27" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{15D3BB38-2B8B-4A93-997E-8AE3661C5E41}" uniqueName="22" name="คอลัมน์2" queryTableFieldId="28" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{9A949FAE-E1AA-46B1-8BD7-4F556C2EC84D}" uniqueName="23" name="คอลัมน์3" queryTableFieldId="29" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -950,7 +994,7 @@
   </sheetPr>
   <dimension ref="A1:U319"/>
   <sheetViews>
-    <sheetView topLeftCell="H322" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="H128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T307" sqref="T307"/>
     </sheetView>
   </sheetViews>
@@ -19466,7 +19510,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:T293">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19483,10 +19527,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:U853"/>
+  <dimension ref="A1:W853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P180" sqref="P180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19505,7 +19549,7 @@
     <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -19566,8 +19610,17 @@
       <c r="T1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -19631,10 +19684,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U2" s="4">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="V2" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -19698,10 +19758,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U3" s="4">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="V3" s="4">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -19765,10 +19832,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.2848</v>
+      </c>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>-1</v>
       </c>
@@ -19832,10 +19906,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U5" s="4">
+        <v>4.82E-2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -19899,10 +19980,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>-1</v>
       </c>
@@ -19966,10 +20054,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U7" s="4">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="V7" s="4">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -20033,10 +20128,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U8" s="4">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -20100,10 +20202,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0.871</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -20167,10 +20276,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0.6411</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>-1</v>
       </c>
@@ -20234,10 +20350,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0.1835</v>
+      </c>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -20301,10 +20424,17 @@
         <v>1</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>-1</v>
       </c>
@@ -20368,10 +20498,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U13" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="V13" s="4">
+        <v>5.28E-2</v>
+      </c>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>-1</v>
       </c>
@@ -20435,10 +20572,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -20502,10 +20646,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U15" s="4">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="V15" s="4">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -20569,10 +20720,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="W16" s="4"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -20636,10 +20794,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0.9234</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="W17" s="4"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -20703,10 +20868,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="W18" s="4"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>-1</v>
       </c>
@@ -20770,10 +20942,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U19" s="4">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="V19" s="4">
+        <v>5.96E-2</v>
+      </c>
+      <c r="W19" s="4"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -20837,10 +21016,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="W20" s="4"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -20904,10 +21090,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="W21" s="4"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -20971,10 +21164,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U22" s="4">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>-1</v>
       </c>
@@ -21038,10 +21238,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U23" s="4">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="V23" s="4">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -21105,10 +21312,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U24" s="4">
+        <v>7.85E-2</v>
+      </c>
+      <c r="V24" s="4">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -21172,10 +21386,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U25" s="4">
+        <v>7.22E-2</v>
+      </c>
+      <c r="V25" s="4">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -21239,10 +21460,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U26" s="4">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="V26" s="4">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>-1</v>
       </c>
@@ -21306,10 +21534,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -21373,10 +21608,17 @@
         <v>1</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0.38169999999999998</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -21440,10 +21682,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>-1</v>
       </c>
@@ -21507,10 +21756,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0.1237</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0.1633</v>
+      </c>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>-1</v>
       </c>
@@ -21574,10 +21830,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U31" s="4">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="V31" s="4">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -21641,10 +21904,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>-1</v>
       </c>
@@ -21708,10 +21978,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U33" s="4">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="V33" s="4">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1</v>
       </c>
@@ -21775,10 +22052,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1</v>
       </c>
@@ -21842,10 +22126,17 @@
         <v>-1</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U35" s="4">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="V35" s="4">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
@@ -21909,10 +22200,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U36" s="4">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="V36" s="4">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="W36" s="4"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>-1</v>
       </c>
@@ -21976,10 +22274,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U37" s="4">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="V37" s="4">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>-1</v>
       </c>
@@ -22043,10 +22348,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U38" s="4">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="V38" s="4">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1</v>
       </c>
@@ -22110,10 +22422,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U39" s="4">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="V39" s="4">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1</v>
       </c>
@@ -22177,10 +22496,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U40" s="4">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="V40" s="4">
+        <v>0.92759999999999998</v>
+      </c>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>-1</v>
       </c>
@@ -22244,10 +22570,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>-1</v>
       </c>
@@ -22311,10 +22644,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U42" s="4">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="V42" s="4">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>-1</v>
       </c>
@@ -22378,10 +22718,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U43" s="4">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="V43" s="4">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -22445,10 +22792,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U44" s="4">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="V44" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1</v>
       </c>
@@ -22512,10 +22866,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U45" s="4">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>-1</v>
       </c>
@@ -22579,10 +22940,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U46" s="4">
+        <v>6.13E-2</v>
+      </c>
+      <c r="V46" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>-1</v>
       </c>
@@ -22646,10 +23014,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U47" s="4">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="V47" s="4">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="W47" s="4"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>-1</v>
       </c>
@@ -22713,10 +23088,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U48" s="4">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="V48" s="4">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="W48" s="4"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1</v>
       </c>
@@ -22780,10 +23162,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U49" s="4">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="V49" s="4">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="W49" s="4"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1</v>
       </c>
@@ -22847,10 +23236,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U50" s="4">
+        <v>0.6573</v>
+      </c>
+      <c r="V50" s="4">
+        <v>0.66169999999999995</v>
+      </c>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>-1</v>
       </c>
@@ -22914,10 +23310,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U51" s="4">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="V51" s="4">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="W51" s="4"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>-1</v>
       </c>
@@ -22981,10 +23384,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U52" s="4">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="V52" s="4">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="W52" s="4"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>-1</v>
       </c>
@@ -23048,10 +23458,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U53" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0.1399</v>
+      </c>
+      <c r="W53" s="4"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -23115,10 +23532,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U54" s="4">
+        <v>0.377</v>
+      </c>
+      <c r="V54" s="4">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="W54" s="4"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -23182,10 +23606,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="V55" s="4">
+        <v>0.91990000000000005</v>
+      </c>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -23249,10 +23680,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U56" s="4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="V56" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="W56" s="4"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>-1</v>
       </c>
@@ -23316,10 +23754,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U57" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="V57" s="4">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="W57" s="4"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>-1</v>
       </c>
@@ -23383,10 +23828,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U58" s="4">
+        <v>4.48E-2</v>
+      </c>
+      <c r="V58" s="4">
+        <v>4.02E-2</v>
+      </c>
+      <c r="W58" s="4"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1</v>
       </c>
@@ -23450,10 +23902,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U59" s="4">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="V59" s="4">
+        <v>0.9173</v>
+      </c>
+      <c r="W59" s="4"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -23517,10 +23976,17 @@
         <v>-1</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U60" s="4">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="V60" s="4">
+        <v>0.8911</v>
+      </c>
+      <c r="W60" s="4"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1</v>
       </c>
@@ -23584,10 +24050,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U61" s="4">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="V61" s="4">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1</v>
       </c>
@@ -23651,10 +24124,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U62" s="4">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="V62" s="4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="W62" s="4"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -23718,10 +24198,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U63" s="4">
+        <v>0.9194</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="W63" s="4"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1</v>
       </c>
@@ -23785,10 +24272,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U64" s="4">
+        <v>0.1148</v>
+      </c>
+      <c r="V64" s="4">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="W64" s="4"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -23852,10 +24346,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U65" s="4">
+        <v>0.92190000000000005</v>
+      </c>
+      <c r="V65" s="4">
+        <v>0.9264</v>
+      </c>
+      <c r="W65" s="4"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1</v>
       </c>
@@ -23919,10 +24420,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U66" s="4">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="V66" s="4">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="W66" s="4"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>-1</v>
       </c>
@@ -23986,10 +24494,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U67" s="4">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="V67" s="4">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="W67" s="4"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>1</v>
       </c>
@@ -24053,10 +24568,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U68" s="4">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="V68" s="4">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="W68" s="4"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -24120,10 +24642,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U69" s="4">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="V69" s="4">
+        <v>3.32E-2</v>
+      </c>
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>-1</v>
       </c>
@@ -24187,10 +24716,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U70" s="4">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="V70" s="4">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="W70" s="4"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1</v>
       </c>
@@ -24254,10 +24790,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U71" s="4">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="V71" s="4">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1</v>
       </c>
@@ -24321,10 +24864,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U72" s="4">
+        <v>0.1075</v>
+      </c>
+      <c r="V72" s="4">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>-1</v>
       </c>
@@ -24388,10 +24938,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U73" s="4">
+        <v>4.87E-2</v>
+      </c>
+      <c r="V73" s="4">
+        <v>5.21E-2</v>
+      </c>
+      <c r="W73" s="4"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -24455,10 +25012,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U74" s="4">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="V74" s="4">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="W74" s="4"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1</v>
       </c>
@@ -24522,10 +25086,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U75" s="4">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="V75" s="4">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="W75" s="4"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -24589,10 +25160,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U76" s="4">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="V76" s="4">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="W76" s="4"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>-1</v>
       </c>
@@ -24656,10 +25234,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U77" s="4">
+        <v>0.1145</v>
+      </c>
+      <c r="V77" s="4">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="W77" s="4"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1</v>
       </c>
@@ -24723,10 +25308,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U78" s="4">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="V78" s="4">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="W78" s="4"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -24790,10 +25382,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U79" s="4">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="V79" s="4">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="W79" s="4"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>1</v>
       </c>
@@ -24857,10 +25456,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U80" s="4">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="V80" s="4">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="W80" s="4"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>-1</v>
       </c>
@@ -24924,10 +25530,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0.2364</v>
+      </c>
+      <c r="V81" s="4">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="W81" s="4"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1</v>
       </c>
@@ -24991,10 +25604,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U82" s="4">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="V82" s="4">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="W82" s="4"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>-1</v>
       </c>
@@ -25058,10 +25678,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U83" s="4">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="W83" s="4"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1</v>
       </c>
@@ -25125,10 +25752,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U84" s="4">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="V84" s="4">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="W84" s="4"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>-1</v>
       </c>
@@ -25192,10 +25826,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U85" s="4">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="V85" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="W85" s="4"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>-1</v>
       </c>
@@ -25259,10 +25900,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U86" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="V86" s="4">
+        <v>0.1399</v>
+      </c>
+      <c r="W86" s="4"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>1</v>
       </c>
@@ -25326,10 +25974,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U87" s="4">
+        <v>0.9163</v>
+      </c>
+      <c r="V87" s="4">
+        <v>0.9214</v>
+      </c>
+      <c r="W87" s="4"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1</v>
       </c>
@@ -25393,10 +26048,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U88" s="4">
+        <v>0.78779999999999994</v>
+      </c>
+      <c r="V88" s="4">
+        <v>0.80520000000000003</v>
+      </c>
+      <c r="W88" s="4"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1</v>
       </c>
@@ -25460,10 +26122,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U89" s="4">
+        <v>0.9224</v>
+      </c>
+      <c r="V89" s="4">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="W89" s="4"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -25527,10 +26196,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U90" s="4">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="V90" s="4">
+        <v>0.1757</v>
+      </c>
+      <c r="W90" s="4"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>-1</v>
       </c>
@@ -25594,10 +26270,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U91" s="4">
+        <v>0.9143</v>
+      </c>
+      <c r="V91" s="4">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="W91" s="4"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1</v>
       </c>
@@ -25661,10 +26344,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U92" s="4">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="V92" s="4">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="W92" s="4"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -25728,10 +26418,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U93" s="4">
+        <v>0.2286</v>
+      </c>
+      <c r="V93" s="4">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="W93" s="4"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>-1</v>
       </c>
@@ -25795,10 +26492,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U94" s="4">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="V94" s="4">
+        <v>0.8861</v>
+      </c>
+      <c r="W94" s="4"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>-1</v>
       </c>
@@ -25862,10 +26566,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U95" s="4">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="V95" s="4">
+        <v>0.8861</v>
+      </c>
+      <c r="W95" s="4"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>1</v>
       </c>
@@ -25929,10 +26640,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U96" s="4">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="V96" s="4">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="W96" s="4"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>1</v>
       </c>
@@ -25996,10 +26714,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U97" s="4">
+        <v>0.753</v>
+      </c>
+      <c r="V97" s="4">
+        <v>0.75680000000000003</v>
+      </c>
+      <c r="W97" s="4"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>1</v>
       </c>
@@ -26063,10 +26788,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U98" s="4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="V98" s="4">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="W98" s="4"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1</v>
       </c>
@@ -26130,10 +26862,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U99" s="4">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="V99" s="4">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="W99" s="4"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -26197,10 +26936,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U100" s="4">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="V100" s="4">
+        <v>0.9012</v>
+      </c>
+      <c r="W100" s="4"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>-1</v>
       </c>
@@ -26264,10 +27010,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U101" s="4">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="V101" s="4">
+        <v>3.85E-2</v>
+      </c>
+      <c r="W101" s="4"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>1</v>
       </c>
@@ -26331,10 +27084,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U102" s="4">
+        <v>0.6109</v>
+      </c>
+      <c r="V102" s="4">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="W102" s="4"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -26398,10 +27158,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U103" s="4">
+        <v>0.72260000000000002</v>
+      </c>
+      <c r="V103" s="4">
+        <v>0.78169999999999995</v>
+      </c>
+      <c r="W103" s="4"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>-1</v>
       </c>
@@ -26465,10 +27232,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U104" s="4">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="V104" s="4">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="W104" s="4"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>-1</v>
       </c>
@@ -26532,10 +27306,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U105" s="4">
+        <v>0.1148</v>
+      </c>
+      <c r="V105" s="4">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="W105" s="4"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>-1</v>
       </c>
@@ -26599,10 +27380,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U106" s="4">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="V106" s="4">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="W106" s="4"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>1</v>
       </c>
@@ -26666,10 +27454,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U107" s="4">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="V107" s="4">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="W107" s="4"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>1</v>
       </c>
@@ -26733,10 +27528,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U108" s="4">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="V108" s="4">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="W108" s="4"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -26800,10 +27602,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U109" s="4">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="V109" s="4">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="W109" s="4"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>-1</v>
       </c>
@@ -26867,10 +27676,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U110" s="4">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="V110" s="4">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="W110" s="4"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>-1</v>
       </c>
@@ -26934,10 +27750,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U111" s="4">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="V111" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="W111" s="4"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>-1</v>
       </c>
@@ -27001,10 +27824,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U112" s="4">
+        <v>0.65890000000000004</v>
+      </c>
+      <c r="V112" s="4">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="W112" s="4"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1</v>
       </c>
@@ -27068,10 +27898,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U113" s="4">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="V113" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="W113" s="4"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>-1</v>
       </c>
@@ -27135,10 +27972,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U114" s="4">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="V114" s="4">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="W114" s="4"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>1</v>
       </c>
@@ -27202,10 +28046,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U115" s="4">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="V115" s="4">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="W115" s="4"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1</v>
       </c>
@@ -27269,10 +28120,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U116" s="4">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="V116" s="4">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="W116" s="4"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>1</v>
       </c>
@@ -27336,10 +28194,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U117" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="V117" s="4">
+        <v>0.92949999999999999</v>
+      </c>
+      <c r="W117" s="4"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>1</v>
       </c>
@@ -27403,10 +28268,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U118" s="4">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="V118" s="4">
+        <v>0.9254</v>
+      </c>
+      <c r="W118" s="4"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>1</v>
       </c>
@@ -27470,10 +28342,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U119" s="4">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="V119" s="4">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="W119" s="4"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>-1</v>
       </c>
@@ -27537,10 +28416,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U120" s="4">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="V120" s="4">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="W120" s="4"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>-1</v>
       </c>
@@ -27604,10 +28490,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U121" s="4">
+        <v>7.85E-2</v>
+      </c>
+      <c r="V121" s="4">
+        <v>7.8E-2</v>
+      </c>
+      <c r="W121" s="4"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>-1</v>
       </c>
@@ -27671,10 +28564,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U122" s="4">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="V122" s="4">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="W122" s="4"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>-1</v>
       </c>
@@ -27738,10 +28638,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U123" s="4">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="V123" s="4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="W123" s="4"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>1</v>
       </c>
@@ -27805,10 +28712,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U124" s="4">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="V124" s="4">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="W124" s="4"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>-1</v>
       </c>
@@ -27872,10 +28786,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U125" s="4">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="V125" s="4">
+        <v>6.13E-2</v>
+      </c>
+      <c r="W125" s="4"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1</v>
       </c>
@@ -27939,10 +28860,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U126" s="4">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="V126" s="4">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="W126" s="4"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>-1</v>
       </c>
@@ -28006,10 +28934,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U127" s="4">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="V127" s="4">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="W127" s="4"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1</v>
       </c>
@@ -28073,10 +29008,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U128" s="4">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="V128" s="4">
+        <v>0.72850000000000004</v>
+      </c>
+      <c r="W128" s="4"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>-1</v>
       </c>
@@ -28140,10 +29082,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U129" s="4">
+        <v>0.67059999999999997</v>
+      </c>
+      <c r="V129" s="4">
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="W129" s="4"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1</v>
       </c>
@@ -28207,10 +29156,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U130" s="4">
+        <v>0.82020000000000004</v>
+      </c>
+      <c r="V130" s="4">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="W130" s="4"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -28274,10 +29230,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U131" s="4">
+        <v>0.69210000000000005</v>
+      </c>
+      <c r="V131" s="4">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="W131" s="4"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>1</v>
       </c>
@@ -28341,10 +29304,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U132" s="4">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="V132" s="4">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="W132" s="4"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1</v>
       </c>
@@ -28408,10 +29378,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U133" s="4">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="V133" s="4">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="W133" s="4"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>-1</v>
       </c>
@@ -28475,10 +29452,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U134" s="4">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="V134" s="4">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="W134" s="4"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1</v>
       </c>
@@ -28542,10 +29526,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U135" s="4">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="V135" s="4">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="W135" s="4"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1</v>
       </c>
@@ -28609,10 +29600,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U136" s="4">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="V136" s="4">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="W136" s="4"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>-1</v>
       </c>
@@ -28676,10 +29674,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U137" s="4">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="V137" s="4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="W137" s="4"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1</v>
       </c>
@@ -28743,10 +29748,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U138" s="4">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="V138" s="4">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="W138" s="4"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>-1</v>
       </c>
@@ -28810,10 +29822,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U139" s="4">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="V139" s="4">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="W139" s="4"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>-1</v>
       </c>
@@ -28877,10 +29896,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U140" s="4">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="V140" s="4">
+        <v>0.48909999999999998</v>
+      </c>
+      <c r="W140" s="4"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1</v>
       </c>
@@ -28944,10 +29970,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U141" s="4">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="V141" s="4">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="W141" s="4"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>1</v>
       </c>
@@ -29011,10 +30044,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U142" s="4">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="V142" s="4">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="W142" s="4"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>-1</v>
       </c>
@@ -29078,10 +30118,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U143" s="4">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="V143" s="4">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="W143" s="4"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>1</v>
       </c>
@@ -29145,10 +30192,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U144" s="4">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="V144" s="4">
+        <v>0.71689999999999998</v>
+      </c>
+      <c r="W144" s="4"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -29212,10 +30266,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U145" s="4">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="V145" s="4">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="W145" s="4"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>1</v>
       </c>
@@ -29279,10 +30340,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U146" s="4">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="V146" s="4">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="W146" s="4"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1</v>
       </c>
@@ -29346,10 +30414,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U147" s="4">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="V147" s="4">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="W147" s="4"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>-1</v>
       </c>
@@ -29413,10 +30488,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U148" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="V148" s="4">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="W148" s="4"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>1</v>
       </c>
@@ -29480,10 +30562,17 @@
         <v>-1</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U149" s="4">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="V149" s="4">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="W149" s="4"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>-1</v>
       </c>
@@ -29547,10 +30636,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U150" s="4">
+        <v>0.2606</v>
+      </c>
+      <c r="V150" s="4">
+        <v>0.2286</v>
+      </c>
+      <c r="W150" s="4"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>-1</v>
       </c>
@@ -29614,10 +30710,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U151" s="4">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="V151" s="4">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="W151" s="4"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>1</v>
       </c>
@@ -29681,10 +30784,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U152" s="4">
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="V152" s="4">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="W152" s="4"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>1</v>
       </c>
@@ -29748,10 +30858,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U153" s="4">
+        <v>0.8639</v>
+      </c>
+      <c r="V153" s="4">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="W153" s="4"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>-1</v>
       </c>
@@ -29815,10 +30932,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U154" s="4">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="V154" s="4">
+        <v>0.28010000000000002</v>
+      </c>
+      <c r="W154" s="4"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>1</v>
       </c>
@@ -29882,10 +31006,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U155" s="4">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="V155" s="4">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="W155" s="4"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>1</v>
       </c>
@@ -29949,10 +31080,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U156" s="4">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="V156" s="4">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="W156" s="4"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1</v>
       </c>
@@ -30016,10 +31154,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U157" s="4">
+        <v>0.9194</v>
+      </c>
+      <c r="V157" s="4">
+        <v>0.9244</v>
+      </c>
+      <c r="W157" s="4"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>-1</v>
       </c>
@@ -30083,10 +31228,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U158" s="4">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="V158" s="4">
+        <v>0.40589999999999998</v>
+      </c>
+      <c r="W158" s="4"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1</v>
       </c>
@@ -30150,10 +31302,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U159" s="4">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="V159" s="4">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="W159" s="4"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>-1</v>
       </c>
@@ -30217,10 +31376,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U160" s="4">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="V160" s="4">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="W160" s="4"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>1</v>
       </c>
@@ -30284,10 +31450,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U161" s="4">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="V161" s="4">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="W161" s="4"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1</v>
       </c>
@@ -30351,10 +31524,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U162" s="4">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="V162" s="4">
+        <v>0.8155</v>
+      </c>
+      <c r="W162" s="4"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>1</v>
       </c>
@@ -30418,10 +31598,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U163" s="4">
+        <v>0.7873</v>
+      </c>
+      <c r="V163" s="4">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="W163" s="4"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>-1</v>
       </c>
@@ -30485,10 +31672,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U164" s="4">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="V164" s="4">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="W164" s="4"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>1</v>
       </c>
@@ -30552,10 +31746,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U165" s="4">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="V165" s="4">
+        <v>0.7601</v>
+      </c>
+      <c r="W165" s="4"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>-1</v>
       </c>
@@ -30619,10 +31820,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U166" s="4">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="V166" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="W166" s="4"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>1</v>
       </c>
@@ -30686,10 +31894,17 @@
         <v>1</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U167" s="4">
+        <v>0.13689999999999999</v>
+      </c>
+      <c r="V167" s="4">
+        <v>0.14030000000000001</v>
+      </c>
+      <c r="W167" s="4"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>-1</v>
       </c>
@@ -30753,10 +31968,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U168" s="4">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="V168" s="4">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="W168" s="4"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1</v>
       </c>
@@ -30820,10 +32042,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U169" s="4">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="V169" s="4">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="W169" s="4"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>-1</v>
       </c>
@@ -30887,10 +32116,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U170" s="4">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="V170" s="4">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="W170" s="4"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>1</v>
       </c>
@@ -30954,10 +32190,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U171" s="4">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="V171" s="4">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="W171" s="4"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1</v>
       </c>
@@ -31021,10 +32264,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U172" s="4">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="V172" s="4">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="W172" s="4"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>-1</v>
       </c>
@@ -31088,10 +32338,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T173" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U173" s="4">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="V173" s="4">
+        <v>6.54E-2</v>
+      </c>
+      <c r="W173" s="4"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1</v>
       </c>
@@ -31155,10 +32412,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U174" s="4">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="V174" s="4">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="W174" s="4"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>-1</v>
       </c>
@@ -31222,10 +32486,17 @@
         <v>1</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U175" s="4">
+        <v>0.1348</v>
+      </c>
+      <c r="V175" s="4">
+        <v>0.1293</v>
+      </c>
+      <c r="W175" s="4"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>-1</v>
       </c>
@@ -31289,10 +32560,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T176" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U176" s="4">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="V176" s="4">
+        <v>0.1532</v>
+      </c>
+      <c r="W176" s="4"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>1</v>
       </c>
@@ -31356,10 +32634,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T177" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U177" s="4">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="V177" s="4">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="W177" s="4"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1</v>
       </c>
@@ -31423,10 +32708,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T178" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U178" s="4">
+        <v>0.109</v>
+      </c>
+      <c r="V178" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="W178" s="4"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>1</v>
       </c>
@@ -31490,10 +32782,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U179" s="4">
+        <v>0.9234</v>
+      </c>
+      <c r="V179" s="4">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="W179" s="4"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>-1</v>
       </c>
@@ -31557,10 +32856,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U180" s="4">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="V180" s="4">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="W180" s="4"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>-1</v>
       </c>
@@ -31624,10 +32930,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U181" s="4">
+        <v>0.6552</v>
+      </c>
+      <c r="V181" s="4">
+        <v>0.66659999999999997</v>
+      </c>
+      <c r="W181" s="4"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>1</v>
       </c>
@@ -31691,10 +33004,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U182" s="4">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="V182" s="4">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="W182" s="4"/>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>-1</v>
       </c>
@@ -31758,10 +33078,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T183" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U183" s="4">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="V183" s="4">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="W183" s="4"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>1</v>
       </c>
@@ -31825,10 +33152,17 @@
         <v>1</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U184" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="V184" s="4">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="W184" s="4"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>-1</v>
       </c>
@@ -31892,10 +33226,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U185" s="4">
+        <v>0.1221</v>
+      </c>
+      <c r="V185" s="4">
+        <v>0.1211</v>
+      </c>
+      <c r="W185" s="4"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>1</v>
       </c>
@@ -31959,10 +33300,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U186" s="4">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="V186" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="W186" s="4"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>1</v>
       </c>
@@ -32026,10 +33374,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T187" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U187" s="4">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="V187" s="4">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="W187" s="4"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>1</v>
       </c>
@@ -32093,10 +33448,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U188" s="4">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="V188" s="4">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="W188" s="4"/>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>1</v>
       </c>
@@ -32160,10 +33522,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U189" s="4">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="V189" s="4">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="W189" s="4"/>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>-1</v>
       </c>
@@ -32227,10 +33596,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T190" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U190" s="4">
+        <v>0.1416</v>
+      </c>
+      <c r="V190" s="4">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="W190" s="4"/>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>1</v>
       </c>
@@ -32294,10 +33670,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U191" s="4">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="V191" s="4">
+        <v>0.9294</v>
+      </c>
+      <c r="W191" s="4"/>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>1</v>
       </c>
@@ -32361,10 +33744,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U192" s="4">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="V192" s="4">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="W192" s="4"/>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>1</v>
       </c>
@@ -32428,10 +33818,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T193" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U193" s="4">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="V193" s="4">
+        <v>0.6925</v>
+      </c>
+      <c r="W193" s="4"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>1</v>
       </c>
@@ -32495,10 +33892,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U194" s="4">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="V194" s="4">
+        <v>0.8115</v>
+      </c>
+      <c r="W194" s="4"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>1</v>
       </c>
@@ -32562,10 +33966,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T195" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U195" s="4">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="V195" s="4">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="W195" s="4"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>1</v>
       </c>
@@ -32629,10 +34040,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T196" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U196" s="4">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="V196" s="4">
+        <v>4.41E-2</v>
+      </c>
+      <c r="W196" s="4"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>1</v>
       </c>
@@ -32696,10 +34114,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T197" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U197" s="4">
+        <v>5.04E-2</v>
+      </c>
+      <c r="V197" s="4">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="W197" s="4"/>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>1</v>
       </c>
@@ -32763,10 +34188,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T198" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U198" s="4">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="V198" s="4">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="W198" s="4"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>-1</v>
       </c>
@@ -32830,10 +34262,17 @@
         <v>-1</v>
       </c>
       <c r="T199" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U199" s="4">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="V199" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="W199" s="4"/>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>-1</v>
       </c>
@@ -32897,10 +34336,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T200" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U200" s="4">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="V200" s="4">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="W200" s="4"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>1</v>
       </c>
@@ -32964,10 +34410,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U201" s="4">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="V201" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="W201" s="4"/>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>1</v>
       </c>
@@ -33031,10 +34484,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U202" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="V202" s="4">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="W202" s="4"/>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>1</v>
       </c>
@@ -33098,10 +34558,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T203" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U203" s="4">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="V203" s="4">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="W203" s="4"/>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>-1</v>
       </c>
@@ -33165,10 +34632,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T204" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U204" s="4">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="V204" s="4">
+        <v>3.78E-2</v>
+      </c>
+      <c r="W204" s="4"/>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>1</v>
       </c>
@@ -33232,10 +34706,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T205" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U205" s="4">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="V205" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="W205" s="4"/>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>1</v>
       </c>
@@ -33299,10 +34780,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T206" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U206" s="4">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="V206" s="4">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="W206" s="4"/>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>1</v>
       </c>
@@ -33366,10 +34854,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T207" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U207" s="4">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="V207" s="4">
+        <v>5.79E-2</v>
+      </c>
+      <c r="W207" s="4"/>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>1</v>
       </c>
@@ -33433,10 +34928,17 @@
         <v>-1</v>
       </c>
       <c r="T208" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U208" s="4">
+        <v>0.8891</v>
+      </c>
+      <c r="V208" s="4">
+        <v>0.87690000000000001</v>
+      </c>
+      <c r="W208" s="4"/>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>1</v>
       </c>
@@ -33500,10 +35002,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T209" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U209" s="4">
+        <v>0.9194</v>
+      </c>
+      <c r="V209" s="4">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="W209" s="4"/>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>1</v>
       </c>
@@ -33567,10 +35076,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T210" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U210" s="4">
+        <v>7.17E-2</v>
+      </c>
+      <c r="V210" s="4">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="W210" s="4"/>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>1</v>
       </c>
@@ -33634,10 +35150,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T211" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U211" s="4">
+        <v>0.54179999999999995</v>
+      </c>
+      <c r="V211" s="4">
+        <v>0.53890000000000005</v>
+      </c>
+      <c r="W211" s="4"/>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>1</v>
       </c>
@@ -33701,10 +35224,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T212" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U212" s="4">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="V212" s="4">
+        <v>0.8891</v>
+      </c>
+      <c r="W212" s="4"/>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>1</v>
       </c>
@@ -33768,10 +35298,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T213" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U213" s="4">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="V213" s="4">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="W213" s="4"/>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>-1</v>
       </c>
@@ -33835,10 +35372,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T214" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U214" s="4">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="V214" s="4">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="W214" s="4"/>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>-1</v>
       </c>
@@ -33902,10 +35446,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T215" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U215" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="V215" s="4">
+        <v>0.11459999999999999</v>
+      </c>
+      <c r="W215" s="4"/>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>1</v>
       </c>
@@ -33969,10 +35520,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T216" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U216" s="4">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="V216" s="4">
+        <v>0.17469999999999999</v>
+      </c>
+      <c r="W216" s="4"/>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1</v>
       </c>
@@ -34036,10 +35594,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T217" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U217" s="4">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="V217" s="4">
+        <v>0.93379999999999996</v>
+      </c>
+      <c r="W217" s="4"/>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>1</v>
       </c>
@@ -34103,10 +35668,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U218" s="4">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="V218" s="4">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="W218" s="4"/>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>-1</v>
       </c>
@@ -34170,10 +35742,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T219" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U219" s="4">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="V219" s="4">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="W219" s="4"/>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>-1</v>
       </c>
@@ -34237,10 +35816,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T220" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U220" s="4">
+        <v>5.79E-2</v>
+      </c>
+      <c r="V220" s="4">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="W220" s="4"/>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>1</v>
       </c>
@@ -34304,10 +35890,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T221" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U221" s="4">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="V221" s="4">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="W221" s="4"/>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>1</v>
       </c>
@@ -34371,10 +35964,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T222" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U222" s="4">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="V222" s="4">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="W222" s="4"/>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>1</v>
       </c>
@@ -34438,10 +36038,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T223" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U223" s="4">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="V223" s="4">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="W223" s="4"/>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>1</v>
       </c>
@@ -34505,10 +36112,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T224" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U224" s="4">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="V224" s="4">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="W224" s="4"/>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>1</v>
       </c>
@@ -34572,10 +36186,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T225" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U225" s="4">
+        <v>0.8649</v>
+      </c>
+      <c r="V225" s="4">
+        <v>0.8639</v>
+      </c>
+      <c r="W225" s="4"/>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1</v>
       </c>
@@ -34639,10 +36260,17 @@
         <v>-1</v>
       </c>
       <c r="T226" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U226" s="4">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="V226" s="4">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="W226" s="4"/>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>1</v>
       </c>
@@ -34706,10 +36334,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T227" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U227" s="4">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="V227" s="4">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="W227" s="4"/>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>-1</v>
       </c>
@@ -34773,10 +36408,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T228" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U228" s="4">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="V228" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="W228" s="4"/>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>-1</v>
       </c>
@@ -34840,10 +36482,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T229" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U229" s="4">
+        <v>0.5343</v>
+      </c>
+      <c r="V229" s="4">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="W229" s="4"/>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -34907,10 +36556,17 @@
         <v>-1</v>
       </c>
       <c r="T230" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U230" s="4">
+        <v>5.96E-2</v>
+      </c>
+      <c r="V230" s="4">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="W230" s="4"/>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>1</v>
       </c>
@@ -34974,10 +36630,17 @@
         <v>-1</v>
       </c>
       <c r="T231" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U231" s="4">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="V231" s="4">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="W231" s="4"/>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>1</v>
       </c>
@@ -35041,10 +36704,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T232" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U232" s="4">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="V232" s="4">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="W232" s="4"/>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>-1</v>
       </c>
@@ -35108,10 +36778,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T233" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U233" s="4">
+        <v>4.82E-2</v>
+      </c>
+      <c r="V233" s="4">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="W233" s="4"/>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>-1</v>
       </c>
@@ -35175,10 +36852,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T234" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U234" s="4">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="V234" s="4">
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="W234" s="4"/>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>-1</v>
       </c>
@@ -35242,10 +36926,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T235" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U235" s="4">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="V235" s="4">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="W235" s="4"/>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>-1</v>
       </c>
@@ -35309,10 +37000,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T236" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U236" s="4">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="V236" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="W236" s="4"/>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>-1</v>
       </c>
@@ -35376,10 +37074,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T237" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U237" s="4">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="V237" s="4">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="W237" s="4"/>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>1</v>
       </c>
@@ -35443,10 +37148,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T238" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U238" s="4">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="V238" s="4">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="W238" s="4"/>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>-1</v>
       </c>
@@ -35510,10 +37222,17 @@
         <v>-1</v>
       </c>
       <c r="T239" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U239" s="4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="V239" s="4">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="W239" s="4"/>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>1</v>
       </c>
@@ -35577,10 +37296,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T240" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U240" s="4">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="V240" s="4">
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="W240" s="4"/>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>1</v>
       </c>
@@ -35644,10 +37370,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T241" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U241" s="4">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="V241" s="4">
+        <v>0.23280000000000001</v>
+      </c>
+      <c r="W241" s="4"/>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>1</v>
       </c>
@@ -35711,10 +37444,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T242" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U242" s="4">
+        <v>0.2581</v>
+      </c>
+      <c r="V242" s="4">
+        <v>0.2122</v>
+      </c>
+      <c r="W242" s="4"/>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>1</v>
       </c>
@@ -35778,10 +37518,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T243" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U243" s="4">
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="V243" s="4">
+        <v>0.16739999999999999</v>
+      </c>
+      <c r="W243" s="4"/>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>-1</v>
       </c>
@@ -35845,10 +37592,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T244" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U244" s="4">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="V244" s="4">
+        <v>4.48E-2</v>
+      </c>
+      <c r="W244" s="4"/>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>1</v>
       </c>
@@ -35912,10 +37666,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T245" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U245" s="4">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="V245" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="W245" s="4"/>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>-1</v>
       </c>
@@ -35979,10 +37740,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T246" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U246" s="4">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="V246" s="4">
+        <v>0.1845</v>
+      </c>
+      <c r="W246" s="4"/>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>1</v>
       </c>
@@ -36046,10 +37814,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T247" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U247" s="4">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="V247" s="4">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="W247" s="4"/>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>1</v>
       </c>
@@ -36113,10 +37888,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T248" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U248" s="4">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="V248" s="4">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="W248" s="4"/>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>-1</v>
       </c>
@@ -36180,10 +37962,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T249" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U249" s="4">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="V249" s="4">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="W249" s="4"/>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>-1</v>
       </c>
@@ -36247,10 +38036,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T250" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U250" s="4">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V250" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="W250" s="4"/>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>-1</v>
       </c>
@@ -36314,10 +38110,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T251" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U251" s="4">
+        <v>0.4819</v>
+      </c>
+      <c r="V251" s="4">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="W251" s="4"/>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>-1</v>
       </c>
@@ -36381,10 +38184,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T252" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U252" s="4">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="V252" s="4">
+        <v>0.80779999999999996</v>
+      </c>
+      <c r="W252" s="4"/>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>-1</v>
       </c>
@@ -36448,10 +38258,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T253" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U253" s="4">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="V253" s="4">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="W253" s="4"/>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>1</v>
       </c>
@@ -36515,10 +38332,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T254" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U254" s="4">
+        <v>0.78690000000000004</v>
+      </c>
+      <c r="V254" s="4">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="W254" s="4"/>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>1</v>
       </c>
@@ -36582,10 +38406,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T255" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U255" s="4">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="V255" s="4">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="W255" s="4"/>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>1</v>
       </c>
@@ -36649,10 +38480,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T256" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U256" s="4">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="V256" s="4">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="W256" s="4"/>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>1</v>
       </c>
@@ -36716,10 +38554,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T257" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U257" s="4">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="V257" s="4">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="W257" s="4"/>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>-1</v>
       </c>
@@ -36783,10 +38628,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T258" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U258" s="4">
+        <v>6.8699999999999997E-2</v>
+      </c>
+      <c r="V258" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="W258" s="4"/>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>1</v>
       </c>
@@ -36850,10 +38702,17 @@
         <v>-1</v>
       </c>
       <c r="T259" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U259" s="4">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="V259" s="4">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="W259" s="4"/>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>1</v>
       </c>
@@ -36917,10 +38776,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T260" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U260" s="4">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="V260" s="4">
+        <v>4.02E-2</v>
+      </c>
+      <c r="W260" s="4"/>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>1</v>
       </c>
@@ -36984,10 +38850,17 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T261" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U261" s="4">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="V261" s="4">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="W261" s="4"/>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>1</v>
       </c>
@@ -37051,10 +38924,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T262" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U262" s="4"/>
+      <c r="V262" s="4"/>
+      <c r="W262" s="4"/>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>1</v>
       </c>
@@ -37118,10 +38994,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T263" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+      <c r="W263" s="4"/>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>1</v>
       </c>
@@ -37185,10 +39064,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T264" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U264" s="4"/>
+      <c r="V264" s="4"/>
+      <c r="W264" s="4"/>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>-1</v>
       </c>
@@ -37252,10 +39134,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T265" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U265" s="4"/>
+      <c r="V265" s="4"/>
+      <c r="W265" s="4"/>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>1</v>
       </c>
@@ -37319,10 +39204,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T266" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U266" s="4"/>
+      <c r="V266" s="4"/>
+      <c r="W266" s="4"/>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>1</v>
       </c>
@@ -37386,10 +39274,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T267" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U267" s="4"/>
+      <c r="V267" s="4"/>
+      <c r="W267" s="4"/>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>1</v>
       </c>
@@ -37453,10 +39344,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T268" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U268" s="4"/>
+      <c r="V268" s="4"/>
+      <c r="W268" s="4"/>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>1</v>
       </c>
@@ -37520,10 +39414,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T269" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U269" s="4"/>
+      <c r="V269" s="4"/>
+      <c r="W269" s="4"/>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>1</v>
       </c>
@@ -37587,10 +39484,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T270" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U270" s="4"/>
+      <c r="V270" s="4"/>
+      <c r="W270" s="4"/>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>1</v>
       </c>
@@ -37654,10 +39554,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T271" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U271" s="4"/>
+      <c r="V271" s="4"/>
+      <c r="W271" s="4"/>
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>-1</v>
       </c>
@@ -37721,10 +39624,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T272" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U272" s="4"/>
+      <c r="V272" s="4"/>
+      <c r="W272" s="4"/>
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>1</v>
       </c>
@@ -37788,10 +39694,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T273" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U273" s="4"/>
+      <c r="V273" s="4"/>
+      <c r="W273" s="4"/>
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>-1</v>
       </c>
@@ -37855,10 +39764,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T274" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U274" s="4"/>
+      <c r="V274" s="4"/>
+      <c r="W274" s="4"/>
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>1</v>
       </c>
@@ -37922,10 +39834,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T275" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U275" s="4"/>
+      <c r="V275" s="4"/>
+      <c r="W275" s="4"/>
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>1</v>
       </c>
@@ -37989,10 +39904,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T276" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>1</v>
       </c>
@@ -38056,10 +39974,13 @@
         <v>-1</v>
       </c>
       <c r="T277" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U277" s="4"/>
+      <c r="V277" s="4"/>
+      <c r="W277" s="4"/>
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>-1</v>
       </c>
@@ -38123,10 +40044,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T278" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U278" s="4"/>
+      <c r="V278" s="4"/>
+      <c r="W278" s="4"/>
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>1</v>
       </c>
@@ -38190,10 +40114,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T279" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U279" s="4"/>
+      <c r="V279" s="4"/>
+      <c r="W279" s="4"/>
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>1</v>
       </c>
@@ -38257,10 +40184,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T280" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U280" s="4"/>
+      <c r="V280" s="4"/>
+      <c r="W280" s="4"/>
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>1</v>
       </c>
@@ -38324,10 +40254,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T281" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U281" s="4"/>
+      <c r="V281" s="4"/>
+      <c r="W281" s="4"/>
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>-1</v>
       </c>
@@ -38391,10 +40324,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T282" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U282" s="4"/>
+      <c r="V282" s="4"/>
+      <c r="W282" s="4"/>
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
         <v>-1</v>
       </c>
@@ -38458,10 +40394,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T283" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U283" s="4"/>
+      <c r="V283" s="4"/>
+      <c r="W283" s="4"/>
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
         <v>-1</v>
       </c>
@@ -38525,10 +40464,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T284" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U284" s="4"/>
+      <c r="V284" s="4"/>
+      <c r="W284" s="4"/>
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
         <v>-1</v>
       </c>
@@ -38592,10 +40534,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T285" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U285" s="4"/>
+      <c r="V285" s="4"/>
+      <c r="W285" s="4"/>
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
         <v>1</v>
       </c>
@@ -38659,10 +40604,13 @@
         <v>-1</v>
       </c>
       <c r="T286" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U286" s="4"/>
+      <c r="V286" s="4"/>
+      <c r="W286" s="4"/>
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
         <v>-1</v>
       </c>
@@ -38726,10 +40674,13 @@
         <v>-1</v>
       </c>
       <c r="T287" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U287" s="4"/>
+      <c r="V287" s="4"/>
+      <c r="W287" s="4"/>
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
         <v>-1</v>
       </c>
@@ -38793,10 +40744,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T288" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U288" s="4"/>
+      <c r="V288" s="4"/>
+      <c r="W288" s="4"/>
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>1</v>
       </c>
@@ -38860,10 +40814,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T289" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U289" s="4"/>
+      <c r="V289" s="4"/>
+      <c r="W289" s="4"/>
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>1</v>
       </c>
@@ -38927,10 +40884,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T290" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U290" s="4"/>
+      <c r="V290" s="4"/>
+      <c r="W290" s="4"/>
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
         <v>1</v>
       </c>
@@ -38994,10 +40954,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T291" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U291" s="4"/>
+      <c r="V291" s="4"/>
+      <c r="W291" s="4"/>
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
         <v>1</v>
       </c>
@@ -39061,10 +41024,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T292" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U292" s="4"/>
+      <c r="V292" s="4"/>
+      <c r="W292" s="4"/>
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
         <v>-1</v>
       </c>
@@ -39128,10 +41094,13 @@
         <v>-0.33333333333333331</v>
       </c>
       <c r="T293" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="U293" s="4"/>
+      <c r="V293" s="4"/>
+      <c r="W293" s="4"/>
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -39154,7 +41123,7 @@
       <c r="T295" s="3"/>
       <c r="U295" s="3"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -39177,7 +41146,7 @@
       <c r="T296" s="3"/>
       <c r="U296" s="3"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -39200,7 +41169,7 @@
       <c r="T297" s="3"/>
       <c r="U297" s="3"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -39223,7 +41192,7 @@
       <c r="T298" s="3"/>
       <c r="U298" s="3"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -39246,7 +41215,7 @@
       <c r="T299" s="3"/>
       <c r="U299" s="3"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -39269,7 +41238,7 @@
       <c r="T300" s="3"/>
       <c r="U300" s="3"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -39292,7 +41261,7 @@
       <c r="T301" s="3"/>
       <c r="U301" s="3"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -39315,7 +41284,7 @@
       <c r="T302" s="3"/>
       <c r="U302" s="3"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -39338,7 +41307,7 @@
       <c r="T303" s="3"/>
       <c r="U303" s="3"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -41330,8 +43299,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:T293">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="~?">
+    <cfRule type="containsText" dxfId="26" priority="4" operator="containsText" text="~?">
       <formula>NOT(ISERROR(SEARCH("~?",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:V11">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThanOrEqual">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:V261">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41343,7 +43322,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{80B94CE1-1343-4EF6-B5AD-D95F965FA048}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{80B94CE1-1343-4EF6-B5AD-D95F965FA048}">
             <xm:f>NOT(ISERROR(SEARCH($T$267,T2)))</xm:f>
             <xm:f>$T$267</xm:f>
             <x14:dxf>
